--- a/municipal/განათლება/ზოგადსაგანმანათლებლო დაწესებულებები/სამცხე-ჯავახეთი/ადიგენი.xlsx
+++ b/municipal/განათლება/ზოგადსაგანმანათლებლო დაწესებულებები/სამცხე-ჯავახეთი/ადიგენი.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\სკოლები\ზოგადსაგანმანათლებლო დაწესებულებები\სამცხე-ჯავახეთი\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\სკოლები\ზოგადსაგანმანათლებლო დაწესებულებები\სამცხე-ჯავახეთი\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4DF6D3-BFBB-4B4E-8DEA-589B301F7333}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48FDAA0-8FBF-4995-ACAE-4B8DC5D04D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="180" windowWidth="20850" windowHeight="13830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ადიგენი" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="30">
   <si>
     <t>საჯარო და კერძო ზოგადსაგანმანათლებლო დაწესებულებები ადიგენის მუნიციპალიტეტში</t>
   </si>
@@ -110,7 +110,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Sylfaen"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>წყარო:</t>
     </r>
@@ -119,11 +119,17 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Sylfaen"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> საქართველოს განათლებისა და მეცნიერების სამინისტრო.
 </t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> დაწყებითი საფეხურის კურსდამთავრებულთა რიცხოვნობა</t>
+  </si>
+  <si>
+    <t>საბაზო საფეხურის კურსდამთავრებულთა რიცხოვნობა</t>
   </si>
 </sst>
 </file>
@@ -131,10 +137,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="#\ ##0"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="#\ ##0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,49 +152,49 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Sylfaen"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Sylfaen"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Sylfaen"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="Sylfaen"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Sylfaen"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -196,10 +202,18 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Sylfaen"/>
-      <charset val="134"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -210,6 +224,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0" tint="-0.14996795556505021"/>
       </patternFill>
     </fill>
   </fills>
@@ -254,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -279,40 +299,34 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -325,8 +339,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -334,7 +353,7 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -610,7 +629,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:AA21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -619,12 +638,12 @@
     <col min="1" max="1" width="36.7109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" style="3" customWidth="1"/>
     <col min="3" max="14" width="10.7109375" style="4" customWidth="1"/>
-    <col min="15" max="16" width="10.7109375" style="5" customWidth="1"/>
-    <col min="17" max="19" width="12" style="5" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="5"/>
+    <col min="15" max="15" width="10.7109375" style="5" customWidth="1"/>
+    <col min="16" max="30" width="5.7109375" style="5" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="54" customHeight="1">
+    <row r="1" spans="1:27" ht="54" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -641,7 +660,7 @@
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1">
+    <row r="2" spans="1:27" ht="15" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -657,14 +676,10 @@
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-    </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" ht="21" customHeight="1">
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+    </row>
+    <row r="3" spans="1:27" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A3" s="9"/>
       <c r="B3" s="10" t="s">
         <v>2</v>
@@ -693,23 +708,23 @@
       <c r="J3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="26" t="s">
+      <c r="L3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="26" t="s">
+      <c r="M3" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="26" t="s">
+      <c r="N3" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="26" t="s">
+      <c r="O3" s="24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="21" customHeight="1">
+    <row r="4" spans="1:27" ht="21" customHeight="1">
       <c r="A4" s="12" t="s">
         <v>16</v>
       </c>
@@ -755,11 +770,8 @@
       <c r="O4" s="13">
         <v>25</v>
       </c>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-    </row>
-    <row r="5" spans="1:19" ht="21" customHeight="1">
+    </row>
+    <row r="5" spans="1:27" ht="21" customHeight="1">
       <c r="A5" s="14" t="s">
         <v>17</v>
       </c>
@@ -802,401 +814,696 @@
       <c r="N5" s="15">
         <v>2033</v>
       </c>
-      <c r="O5" s="28">
+      <c r="O5" s="15">
         <v>1973</v>
       </c>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-    </row>
-    <row r="6" spans="1:19" ht="30">
+    </row>
+    <row r="6" spans="1:27" ht="30">
       <c r="A6" s="16" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="18">
-        <v>193</v>
-      </c>
-      <c r="D6" s="18">
-        <v>217</v>
-      </c>
-      <c r="E6" s="18">
-        <v>179</v>
-      </c>
-      <c r="F6" s="18">
-        <v>211</v>
-      </c>
-      <c r="G6" s="18">
-        <v>179</v>
-      </c>
-      <c r="H6" s="18">
-        <v>171</v>
-      </c>
-      <c r="I6" s="18">
+      <c r="C6" s="15">
+        <v>203</v>
+      </c>
+      <c r="D6" s="15">
+        <v>189</v>
+      </c>
+      <c r="E6" s="15">
+        <v>205</v>
+      </c>
+      <c r="F6" s="15">
+        <v>178</v>
+      </c>
+      <c r="G6" s="15">
+        <v>207</v>
+      </c>
+      <c r="H6" s="15">
+        <v>169</v>
+      </c>
+      <c r="I6" s="15">
+        <v>152</v>
+      </c>
+      <c r="J6" s="15">
         <v>168</v>
       </c>
-      <c r="J6" s="18">
-        <v>150</v>
-      </c>
-      <c r="K6" s="18">
-        <v>170</v>
-      </c>
-      <c r="L6" s="18">
-        <v>165</v>
-      </c>
-      <c r="M6" s="18">
-        <v>199</v>
-      </c>
-      <c r="N6" s="18">
-        <v>170</v>
+      <c r="K6" s="15">
+        <v>156</v>
+      </c>
+      <c r="L6" s="15">
+        <v>164</v>
+      </c>
+      <c r="M6" s="15">
+        <v>198</v>
+      </c>
+      <c r="N6" s="15">
+        <f>N7+N8</f>
+        <v>173</v>
       </c>
       <c r="O6" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-    </row>
-    <row r="7" spans="1:19" ht="21" customHeight="1">
+    </row>
+    <row r="7" spans="1:27" ht="15.75">
       <c r="A7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="17" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="15">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D7" s="15">
+        <v>84</v>
+      </c>
+      <c r="E7" s="15">
+        <v>101</v>
+      </c>
+      <c r="F7" s="15">
+        <v>95</v>
+      </c>
+      <c r="G7" s="15">
         <v>93</v>
       </c>
-      <c r="E7" s="15">
-        <v>93</v>
-      </c>
-      <c r="F7" s="15">
-        <v>113</v>
-      </c>
-      <c r="G7" s="15">
-        <v>96</v>
-      </c>
       <c r="H7" s="15">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="I7" s="15">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J7" s="15">
         <v>76</v>
       </c>
       <c r="K7" s="15">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="L7" s="15">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="M7" s="15">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="N7" s="15">
-        <v>70</v>
-      </c>
-      <c r="O7" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-    </row>
-    <row r="8" spans="1:19" ht="21" customHeight="1">
+        <v>80</v>
+      </c>
+      <c r="O7" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="15.75">
       <c r="A8" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="17" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="15">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="D8" s="15">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="E8" s="15">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F8" s="15">
+        <v>83</v>
+      </c>
+      <c r="G8" s="15">
+        <v>114</v>
+      </c>
+      <c r="H8" s="15">
         <v>98</v>
       </c>
-      <c r="G8" s="15">
+      <c r="I8" s="15">
+        <v>80</v>
+      </c>
+      <c r="J8" s="15">
+        <v>92</v>
+      </c>
+      <c r="K8" s="15">
+        <v>81</v>
+      </c>
+      <c r="L8" s="15">
         <v>83</v>
       </c>
-      <c r="H8" s="15">
-        <v>89</v>
-      </c>
-      <c r="I8" s="15">
-        <v>92</v>
-      </c>
-      <c r="J8" s="15">
-        <v>74</v>
-      </c>
-      <c r="K8" s="15">
-        <v>79</v>
-      </c>
-      <c r="L8" s="15">
-        <v>80</v>
-      </c>
       <c r="M8" s="15">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="N8" s="15">
-        <v>100</v>
-      </c>
-      <c r="O8" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
-    </row>
-    <row r="9" spans="1:19" ht="27.75" customHeight="1">
-      <c r="A9" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="31">
-        <v>11.3780397936625</v>
-      </c>
-      <c r="D9" s="31">
-        <v>12.921281410027399</v>
-      </c>
-      <c r="E9" s="31">
-        <v>10.749136766251301</v>
-      </c>
-      <c r="F9" s="31">
-        <v>12.7469340904972</v>
-      </c>
-      <c r="G9" s="31">
-        <v>10.8494711640452</v>
-      </c>
-      <c r="H9" s="31">
-        <v>10.387559227311399</v>
-      </c>
-      <c r="I9" s="31">
-        <v>10.2414045354792</v>
-      </c>
-      <c r="J9" s="31">
-        <v>9.1824553885709008</v>
-      </c>
-      <c r="K9" s="31">
-        <v>10.444185046384501</v>
-      </c>
-      <c r="L9" s="31">
-        <v>10.1905320692956</v>
-      </c>
-      <c r="M9" s="31">
-        <v>12.3502761745175</v>
-      </c>
-      <c r="N9" s="31">
-        <v>10.683089298058199</v>
-      </c>
-      <c r="O9" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
-    </row>
-    <row r="10" spans="1:19" ht="21" customHeight="1">
+        <v>93</v>
+      </c>
+      <c r="O8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA8" s="26"/>
+    </row>
+    <row r="9" spans="1:27" ht="30">
+      <c r="A9" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="15">
+        <v>278</v>
+      </c>
+      <c r="D9" s="15">
+        <v>234</v>
+      </c>
+      <c r="E9" s="15">
+        <v>219</v>
+      </c>
+      <c r="F9" s="15">
+        <v>199</v>
+      </c>
+      <c r="G9" s="15">
+        <v>167</v>
+      </c>
+      <c r="H9" s="15">
+        <v>191</v>
+      </c>
+      <c r="I9" s="15">
+        <v>175</v>
+      </c>
+      <c r="J9" s="15">
+        <v>215</v>
+      </c>
+      <c r="K9" s="15">
+        <v>175</v>
+      </c>
+      <c r="L9" s="15">
+        <v>150</v>
+      </c>
+      <c r="M9" s="15">
+        <v>160</v>
+      </c>
+      <c r="N9" s="15">
+        <f>N10+N11</f>
+        <v>145</v>
+      </c>
+      <c r="O9" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA9" s="26"/>
+    </row>
+    <row r="10" spans="1:27" ht="15.75">
       <c r="A10" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="15">
+        <v>146</v>
+      </c>
+      <c r="D10" s="15">
+        <v>125</v>
+      </c>
+      <c r="E10" s="15">
+        <v>110</v>
+      </c>
+      <c r="F10" s="15">
+        <v>91</v>
+      </c>
+      <c r="G10" s="15">
+        <v>84</v>
       </c>
       <c r="H10" s="15">
-        <v>527</v>
+        <v>97</v>
       </c>
       <c r="I10" s="15">
-        <v>520</v>
+        <v>94</v>
       </c>
       <c r="J10" s="15">
-        <v>509</v>
+        <v>97</v>
       </c>
       <c r="K10" s="15">
-        <v>483</v>
+        <v>73</v>
       </c>
       <c r="L10" s="15">
-        <v>462</v>
+        <v>72</v>
       </c>
       <c r="M10" s="15">
-        <v>472</v>
+        <v>75</v>
       </c>
       <c r="N10" s="15">
-        <v>456</v>
-      </c>
-      <c r="O10" s="19">
-        <v>461</v>
+        <v>73</v>
+      </c>
+      <c r="O10" s="17" t="s">
+        <v>19</v>
       </c>
       <c r="P10" s="27"/>
       <c r="Q10" s="27"/>
       <c r="R10" s="27"/>
-    </row>
-    <row r="11" spans="1:19" ht="21" customHeight="1">
+      <c r="S10" s="28"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="27"/>
+      <c r="W10" s="27"/>
+      <c r="X10" s="27"/>
+      <c r="Y10" s="27"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="29"/>
+    </row>
+    <row r="11" spans="1:27" ht="15.75">
       <c r="A11" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="15">
+        <v>132</v>
+      </c>
+      <c r="D11" s="15">
+        <v>109</v>
+      </c>
+      <c r="E11" s="15">
+        <v>109</v>
+      </c>
+      <c r="F11" s="15">
+        <v>108</v>
+      </c>
+      <c r="G11" s="15">
+        <v>83</v>
+      </c>
+      <c r="H11" s="15">
+        <v>94</v>
+      </c>
+      <c r="I11" s="15">
+        <v>81</v>
+      </c>
+      <c r="J11" s="15">
+        <v>118</v>
+      </c>
+      <c r="K11" s="15">
+        <v>102</v>
+      </c>
+      <c r="L11" s="15">
+        <v>78</v>
+      </c>
+      <c r="M11" s="15">
+        <v>85</v>
+      </c>
+      <c r="N11" s="15">
+        <v>72</v>
+      </c>
+      <c r="O11" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="30">
+      <c r="A12" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="15">
+        <v>193</v>
+      </c>
+      <c r="D12" s="15">
+        <v>217</v>
+      </c>
+      <c r="E12" s="15">
+        <v>174</v>
+      </c>
+      <c r="F12" s="15">
+        <v>207</v>
+      </c>
+      <c r="G12" s="15">
+        <v>179</v>
+      </c>
+      <c r="H12" s="15">
+        <v>171</v>
+      </c>
+      <c r="I12" s="15">
+        <v>168</v>
+      </c>
+      <c r="J12" s="15">
+        <v>150</v>
+      </c>
+      <c r="K12" s="15">
+        <v>168</v>
+      </c>
+      <c r="L12" s="15">
+        <v>165</v>
+      </c>
+      <c r="M12" s="15">
+        <v>199</v>
+      </c>
+      <c r="N12" s="15">
+        <v>170</v>
+      </c>
+      <c r="O12" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+    </row>
+    <row r="13" spans="1:27" ht="21" customHeight="1">
+      <c r="A13" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="15">
+        <v>90</v>
+      </c>
+      <c r="D13" s="15">
+        <v>93</v>
+      </c>
+      <c r="E13" s="15">
+        <v>88</v>
+      </c>
+      <c r="F13" s="15">
+        <v>110</v>
+      </c>
+      <c r="G13" s="15">
+        <v>96</v>
+      </c>
+      <c r="H13" s="15">
+        <v>82</v>
+      </c>
+      <c r="I13" s="15">
+        <v>76</v>
+      </c>
+      <c r="J13" s="15">
+        <v>76</v>
+      </c>
+      <c r="K13" s="15">
+        <v>91</v>
+      </c>
+      <c r="L13" s="15">
+        <v>85</v>
+      </c>
+      <c r="M13" s="15">
+        <v>91</v>
+      </c>
+      <c r="N13" s="15">
+        <v>70</v>
+      </c>
+      <c r="O13" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+    </row>
+    <row r="14" spans="1:27" ht="21" customHeight="1">
+      <c r="A14" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="15">
+        <v>103</v>
+      </c>
+      <c r="D14" s="15">
+        <v>124</v>
+      </c>
+      <c r="E14" s="15">
+        <v>86</v>
+      </c>
+      <c r="F14" s="15">
+        <v>97</v>
+      </c>
+      <c r="G14" s="15">
+        <v>83</v>
+      </c>
+      <c r="H14" s="15">
+        <v>89</v>
+      </c>
+      <c r="I14" s="15">
+        <v>92</v>
+      </c>
+      <c r="J14" s="15">
+        <v>74</v>
+      </c>
+      <c r="K14" s="15">
+        <v>77</v>
+      </c>
+      <c r="L14" s="15">
+        <v>80</v>
+      </c>
+      <c r="M14" s="15">
+        <v>108</v>
+      </c>
+      <c r="N14" s="15">
+        <v>100</v>
+      </c>
+      <c r="O14" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+    </row>
+    <row r="15" spans="1:27" ht="27.75" customHeight="1">
+      <c r="A15" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="32">
+        <v>11.492199595093485</v>
+      </c>
+      <c r="D15" s="32">
+        <v>13.031076414952709</v>
+      </c>
+      <c r="E15" s="32">
+        <v>10.511689723917113</v>
+      </c>
+      <c r="F15" s="32">
+        <v>12.546595145013184</v>
+      </c>
+      <c r="G15" s="32">
+        <v>10.873526910460454</v>
+      </c>
+      <c r="H15" s="32">
+        <v>10.424286759326993</v>
+      </c>
+      <c r="I15" s="32">
+        <v>10.284350035199413</v>
+      </c>
+      <c r="J15" s="32">
+        <v>9.2154573938686486</v>
+      </c>
+      <c r="K15" s="32">
+        <v>10.375814470555538</v>
+      </c>
+      <c r="L15" s="32">
+        <v>10.240178737665239</v>
+      </c>
+      <c r="M15" s="32">
+        <v>12.433614495470167</v>
+      </c>
+      <c r="N15" s="32">
+        <v>10.68308929805819</v>
+      </c>
+      <c r="O15" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+    </row>
+    <row r="16" spans="1:27" ht="21" customHeight="1">
+      <c r="A16" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="15">
+        <v>527</v>
+      </c>
+      <c r="I16" s="15">
+        <v>520</v>
+      </c>
+      <c r="J16" s="15">
+        <v>509</v>
+      </c>
+      <c r="K16" s="15">
+        <v>483</v>
+      </c>
+      <c r="L16" s="15">
+        <v>462</v>
+      </c>
+      <c r="M16" s="15">
+        <v>472</v>
+      </c>
+      <c r="N16" s="15">
+        <v>456</v>
+      </c>
+      <c r="O16" s="17">
+        <v>461</v>
+      </c>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+    </row>
+    <row r="17" spans="1:18" ht="21" customHeight="1">
+      <c r="A17" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="15">
+      <c r="B17" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="15">
         <v>401</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I17" s="15">
         <v>399</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J17" s="15">
         <v>389</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K17" s="15">
         <v>380</v>
       </c>
-      <c r="L11" s="15">
+      <c r="L17" s="15">
         <v>369</v>
       </c>
-      <c r="M11" s="15">
+      <c r="M17" s="15">
         <v>378</v>
       </c>
-      <c r="N11" s="15">
+      <c r="N17" s="15">
         <v>374</v>
       </c>
-      <c r="O11" s="19">
+      <c r="O17" s="17">
         <v>376</v>
       </c>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
-    </row>
-    <row r="12" spans="1:19" ht="21" customHeight="1">
-      <c r="A12" s="21" t="s">
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+    </row>
+    <row r="18" spans="1:18" ht="21" customHeight="1">
+      <c r="A18" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="23">
+      <c r="B18" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="21">
         <v>126</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I18" s="21">
         <v>121</v>
       </c>
-      <c r="J12" s="23">
+      <c r="J18" s="21">
         <v>120</v>
       </c>
-      <c r="K12" s="23">
+      <c r="K18" s="21">
         <v>103</v>
       </c>
-      <c r="L12" s="23">
+      <c r="L18" s="21">
         <v>93</v>
       </c>
-      <c r="M12" s="23">
+      <c r="M18" s="21">
         <v>94</v>
       </c>
-      <c r="N12" s="23">
+      <c r="N18" s="21">
         <v>82</v>
       </c>
-      <c r="O12" s="22">
+      <c r="O18" s="20">
         <v>85</v>
       </c>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="27"/>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="A13" s="29" t="s">
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-    </row>
-    <row r="14" spans="1:19" s="2" customFormat="1">
-      <c r="A14" s="30" t="s">
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+    </row>
+    <row r="20" spans="1:18" s="2" customFormat="1">
+      <c r="A20" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="24"/>
-      <c r="N14" s="24"/>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="22"/>
+      <c r="N20" s="22"/>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:F20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
